--- a/Documentazione generale/Change Request CodeSmell/Docuemtazione Testing/Test Strategy.xlsx
+++ b/Documentazione generale/Change Request CodeSmell/Docuemtazione Testing/Test Strategy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Evoluzione-cASpER\Documentazione generale\Docuemtazione Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Evoluzione-cASpER\Documentazione generale\Change Request CodeSmell\Docuemtazione Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Test Activities</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>Regression Test Plan</t>
+  </si>
+  <si>
+    <t>Stesura Unit Test Plan</t>
+  </si>
+  <si>
+    <t>Implementazione ed esecuzione Unit Test</t>
+  </si>
+  <si>
+    <t>Selezione Test Case Unit Test</t>
+  </si>
+  <si>
+    <t>Report Unit Test</t>
+  </si>
+  <si>
+    <t>Stesura Integration Test Plan</t>
+  </si>
+  <si>
+    <t>Selezione Test Case Integratio Test</t>
+  </si>
+  <si>
+    <t>Implementazione ed esecuzione Integration Test</t>
+  </si>
+  <si>
+    <t>Report Integration Test</t>
   </si>
 </sst>
 </file>
@@ -101,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -208,10 +232,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -222,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -236,9 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,11 +288,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -539,15 +581,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
@@ -555,21 +597,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,7 +644,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="15"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -614,7 +656,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
@@ -630,7 +672,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -642,7 +684,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3"/>
@@ -656,7 +698,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="3"/>
@@ -672,7 +714,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
@@ -686,23 +728,133 @@
       <c r="E9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
